--- a/com.Equarz.Ecommerce/src/main/java/com/testdata/Registration data.xlsx
+++ b/com.Equarz.Ecommerce/src/main/java/com/testdata/Registration data.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Address" sheetId="2" r:id="rId2"/>
+    <sheet name="Editaddress" sheetId="3" r:id="rId3"/>
+    <sheet name="Profile" sheetId="4" r:id="rId4"/>
+    <sheet name="prodaddress" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -119,6 +122,30 @@
   </si>
   <si>
     <t>main bazar,vinukonda</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>newpassword</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Niharika</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -453,7 +480,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -520,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,4 +593,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>6300313272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>522647</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>522647</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6300313272</v>
+      </c>
+      <c r="D4">
+        <v>522647</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>6300313272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>522647</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>123456789</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>6300313272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>522647</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>